--- a/人员信息矩阵.xlsx
+++ b/人员信息矩阵.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FFB5C8-D670-4907-9361-DA57F35D1A8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2452528-1CB8-4236-9F59-71EF22C5C880}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3555" windowWidth="25740" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="2685" windowWidth="25500" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infor" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>才能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家乡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,7 +46,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品德和做事</t>
+    <t>是否聪明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否爱学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才能或特殊能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品德和人品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做事可靠度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘进朝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,21 +454,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="15" width="14.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
+    <col min="7" max="16" width="14.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,30 +478,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
